--- a/new kartochki/ЗООМ.xlsx
+++ b/new kartochki/ЗООМ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH99"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4975,144 +4975,6 @@
       <c r="AG96" t="inlineStr"/>
       <c r="AH96" t="inlineStr"/>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>8009470060493</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                wSp.Dog EXCELLENCE  Pate Puppy&amp;Jun Tuna (150) Конс. корм паштет из тунца для щенков</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
-      <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
-      <c r="AD97" t="inlineStr"/>
-      <c r="AE97" t="inlineStr"/>
-      <c r="AF97" t="inlineStr"/>
-      <c r="AG97" t="inlineStr"/>
-      <c r="AH97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>8009470297097</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                GC Indoor (0,4кг) Корм для домашних кошек</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
-      <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
-      <c r="AD98" t="inlineStr"/>
-      <c r="AE98" t="inlineStr"/>
-      <c r="AF98" t="inlineStr"/>
-      <c r="AG98" t="inlineStr"/>
-      <c r="AH98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>8009470386142</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                GD Adult All breeds LIGHT With CHICKEN (3кг) Корм для взрослых собак всех пород низкокалор.с курицей</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="n">
-        <v>26.81</v>
-      </c>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
-      <c r="AH99" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new kartochki/ЗООМ.xlsx
+++ b/new kartochki/ЗООМ.xlsx
@@ -14,17 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="236">
+  <si>
+    <t>Ценовая группа/ Номенклатура/ Характеристика номенклатуры</t>
+  </si>
+  <si>
+    <t>Остаток_x</t>
+  </si>
   <si>
     <t>Штрих код</t>
   </si>
   <si>
-    <t>Ценовая группа/ Номенклатура/ Характеристика номенклатуры</t>
-  </si>
-  <si>
-    <t>Остаток_x</t>
-  </si>
-  <si>
     <t>ЗМ c НДС</t>
   </si>
   <si>
@@ -118,6 +118,309 @@
     <t>Остаток_y</t>
   </si>
   <si>
+    <t xml:space="preserve">            HTD Adult MAXI  CHICKEN/TURKEY (12,5кг) Корм для взрослых собак крупных пород с курицей и индейкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MAXI  FISH (12.5кг) Корм для взрослых собак крупных пород с рыбой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MAXI  SALMON/RICE (12,5кг) Корм для взрослых собак крупных пород с лососем и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MEDIUM  FISH (3кг) Корм для взрослых собак средних пород с рыбой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MEDIUM  LAMB/RICE  (3кг) Корм для взрослых собак средних пород с ягненком и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MEDIUM  LAMB/RICE (12,5кг) Корм для взрослых собак средних пород с ягненком и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MEDIUM  SALMON/RICE  (3кг) Корм для взрослых собак средних пород с лососем и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MEDIUM  SALMON/RICE (12,5кг) Корм для взрослых собак средних пород с лососем и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MEDIUM CHICKEN/TURKEY  (3кг) Корм для взрослых собак средних пород с курицей и индейкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MEDIUM CHICKEN/TURKEY (20 кг) Корм для взрослых собак средних пород с курицей и индейкой </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MINI CHICKEN/TURKEY (2кг) Корм для взрослых собак мелких  пород с курицей и индейкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MINI CHICKEN/TURKEY (8кг) Корм для взрослых собак мелких  пород с курицей и индейкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MINI SALMON/RICE (2кг) Корм для взрослых собак мелких  пород с лососем и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MINI SALMON/RICE (8кг) Корм для взрослых собак мелких  пород с лососем и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Diet GASTRO INTESTINAL (1,5кг)  Диета для собак с чувствительным пищеварением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Diet GASTRO INTESTINAL (10кг)  Диета для собак с чувствительным пищеварением</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Diet PUPPY JOINT (1,5кг)  Диета для щенков с заболеваниями суставов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Diet PUPPY JOINT (10 кг)  Диета для щенков с заболеваниями суставов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Diet SKIN CARE (1,5кг)  Диета для собак  с заболеваниями кожи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Diet SKIN CARE (10кг)  Диета для собак  с заболеваниями кожи</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD GF Adult LAMB/TAPIOCA (12 кг) Беззерновой корм для собак всех пород с ягненком и тапиокой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD GF Adult SALMON/PEAS (1,5 кг) Беззерновой корм для собак всех пород с лососем и горохом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD GF Adult SALMON/PEAS (20 кг) Беззерновой корм для собак всех пород с лососем и горохом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD LG Adult MINI SALMON/RICE (1,5 кг) Низкозерновой корм для собак мелких пород с лососем и рисом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD LG Adult MINI SALMON/RICE (8 кг) Низкозерновой корм для собак мелких пород с лососем и рисом </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD LG PUPPY SALMON/RICE (1,5 кг) Низкозерновой корм для щенков всех пород с лососем и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD LG PUPPY SALMON/RICE (12 кг) Низкозерновой корм для щенков всех пород с лососем и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Puppy MAXI Chicken /Turkey  (3кг) Корм для щенков крупных  пород   с курицей и индейкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Puppy MAXI Chicken /Turkey (12,5кг) Корм для щенков крупных  пород  с курицей и индейкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Puppy MINI /MEDIUM Chicken /Turkey  (3кг) Корм для щенков мелких и средних пород курица/инд.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Puppy MINI /MEDIUM Chicken /Turkey ( 20кг) Корм для щенков мелких и средних пород курица/инд.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult  ARINGA (1,5 кг) Корм для взрослых кошек на основе сельди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult  ARINGA (10 кг) Корм для взрослых кошек на основе сельди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult  STERILIZED ARINGA (1,5 кг) Корм для взрослых стерилизованных кошек на основе сельди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult  STERILIZED ARINGA (10 кг) Корм для взрослых стерилизованных кошек на основе сельди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult MANZO (10кг) Корм для взрослых кошек с говядиной </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult PESCE DI MARE (0.3 кг) Корм для взрослых кошек с морской рыбой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult POLLO (1.5 кг) Корм для взрослых кошек с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult POLLO (10кг) Корм для взрослых кошек с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult SALMONE (1.5 кг) Корм для взрослых кошек с лососем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult SALMONE (10 кг) Корм для взрослых кошек с лососем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult STERILIZED AZZURRO (0.3кг) Корм для взрослых стерилизованных кошек с голубой рыбой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult STERILIZED MANZO (10 кг) Корм для стерилизованных кошек с говядиной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult STERILIZED POLLO (0.3кг) Корм для взрослых стерилизованных кошек с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult STERILIZED POLLO (1,5 кг) Корм для взрослых стерилизованных кошек с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult STERILIZED POLLO (10 кг) Корм для взрослых стерилизованных кошек с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC Adult STERILIZED SALMONE (10 кг) Корм для стерилизованных кошек с лососем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC CAT KITTEN POLLO (1.5кг) Корм для котят с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRC CAT KITTEN POLLO (10кг) Корм для котят с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            пробник PRC CAMPIONE  CAT KITTEN (0.3кг) Корм для котят с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            пробник PRC CAMPIONE CAT Adult ARINGA (0.3кг) Корм для взрослых  кошек с сельдью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            пробник PRC CAMPIONE CAT Adult MANZO (0.3кг) Корм для взрослых  кошек с говядиной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            пробник PRC CAMPIONE CAT Sterilizatto ARINGA (0.3кг) Корм для стерилизованных кошек с сельдью</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            пробник PRC CAMPIONE CAT STERILIZZATO POLLO (0.3 кг) Корм для стерилизованных кошек с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  ALL BREEDS BUFALO  (2кг) Корм для взрослых собак всех  пород с буйволом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  ALL BREEDS BUFALO (12кг) Корм для взрослых собак всех  пород с буйволом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  ALL BREEDS CAVALLO  (2кг) Корм для взрослых собак всех  пород с кониной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  ALL BREEDS CAVALLO (12кг) Корм для взрослых собак всех  пород с кониной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  ALL BREEDS CERVO  (2кг) Корм для взрослых собак всех  пород с олениной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  ALL BREEDS CERVO (12кг) Корм для взрослых собак всех  пород с олениной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  ALL BREEDS LIGHT  (2кг) Корм для взрослых собак всех  пород низкокалор.с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  ALL BREEDS LIGHT (12кг) Корм для взрослых собак всех  пород низкокалор.с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MAXI AGNELLO  (2кг) Корм для взрослых собак крупных пород с ягненком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MAXI AGNELLO (12кг) Корм для взрослых собак крупных пород с ягненком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MAXI MAIALE  (2кг) Корм для взрослых собак крупных пород со свининой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MAXI MAIALE (12кг) Корм для взрослых собак крупных пород со свининой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MAXI POLLO  (2кг) Корм для взрослых собак  крупных пород с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MAXI POLLO (12кг) Корм для взрослых собак  крупных пород с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MAXI SALMON  (2кг) Корм для взрослых собак крупных  пород с лососем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MAXI SALMON (12кг) Корм для взрослых собак крупных  пород с лососем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MEDIUM AGNELLO  (2кг) Корм для взрослых собак средних  пород с ягненком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MEDIUM AGNELLO (12кг) Корм для взрослых собак средних  пород с ягненком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MEDIUM MAIALE  (2кг) Корм для взрослых собак средних пород со свининой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MEDIUM MAIALE (12кг) Корм для взрослых собак средних пород со свининой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MEDIUM SALMON  (2кг) Корм для взрослых собак средних пород с лососем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MEDIUM SALMON (12кг) Корм для взрослых собак средних пород с лососем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MINI AGNELLO (2кг) Корм для взрослых собак мелких пород с ягненком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MINI AGNELLO (8кг) Корм для взрослых собак мелких пород с ягненком</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MINI MAIALE (2кг) Корм для взрослых собак мелких пород со свининой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Adult  MINI MAIALE (8кг) Корм для взрослых собак мелких пород со свининой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Puppy  MAXI POLLO  (2кг) Корм для щенков  крупных пород с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PRD Puppy  MAXI POLLO (12кг) Корм для щенков  крупных пород с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            пробник PRD CAMPIONE Puppy MINI&amp;MEDIUM POLLO (0.3кг) Корм для щенков мелких и средн. пород с курицей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            REAL DOG ADULT  CHICKEN &amp; RICE 25/11,5 (20 кг) Корм для взр. собак средних и крупных пород кур./инд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            REAL DOG ADULT  CHICKEN 28/16 (20 кг) Корм для взрослых собак всех пород курица/индейка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            REAL DOG ADULT HORSE (20 кг) Корм для взрослых собак всех пород с кониной</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            REAL DOG ADULT PORK (20 кг) Корм для взрослых собак всех пород со свининой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            REAL DOG ADULT SALMON (20 кг) Корм для взрослых собак всех пород с лососем и рисом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            REAL DOG PUPPY  (20 кг) Корм для щенков всех пород со свининой </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult All Breeds FOREST (1,5кг) Корм для взр. собак всех пород ягн./свин./буйвол/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult All Breeds FOREST (10кг) Корм для взр. собак всех пород ягн./свин./буйвол/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult All Breeds OCEAN (1,5кг) Корм для взр. собак всех пород лосось/сельдь/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult All Breeds OCEAN (10кг) Корм для взр. собак всех пород лосось/сельдь/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MINI  FOREST (1,5кг) Корм для взр. собак мелких пород ягн./свин./буйвол/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MINI  FOREST (10кг) Корм для взр. собак мелких пород ягн./свин./буйвол/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MINI  OCEAN (1,5кг) Корм для взр. собак мелких  пород лосось/сельдь/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD Adult MINI  OCEAN (10кг)  Корм для взр. собак мелких  пород лосось/сельдь/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD PUPPY  All Breeds FOREST (1,5кг) Корм для щенков всех  пород  ягн./свин./буйвол/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD PUPPY  All Breeds FOREST (10кг)  Корм для щенков всех  пород  ягн./свин./буйвол/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD PUPPY  All Breeds OCEAN (1,5кг) Корм для щенков всех  пород лосось/сельдь/бурый рис </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HTD PUPPY  All Breeds OCEAN (10кг) Корм для щенков всех  пород лосось/сельдь/бурый рис </t>
+  </si>
+  <si>
     <t>8033424954101</t>
   </si>
   <si>
@@ -367,6 +670,24 @@
     <t>8033424957997</t>
   </si>
   <si>
+    <t>8102024070570</t>
+  </si>
+  <si>
+    <t>8102023070571</t>
+  </si>
+  <si>
+    <t>8102026070578</t>
+  </si>
+  <si>
+    <t>8102025070678</t>
+  </si>
+  <si>
+    <t>8102024070471</t>
+  </si>
+  <si>
+    <t>8102025070579</t>
+  </si>
+  <si>
     <t>8033424969099</t>
   </si>
   <si>
@@ -401,291 +722,6 @@
   </si>
   <si>
     <t>8033424969020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MAXI  CHICKEN/TURKEY (12,5кг) Корм для взрослых собак крупных пород с курицей и индейкой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MAXI  FISH (12.5кг) Корм для взрослых собак крупных пород с рыбой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MAXI  SALMON/RICE (12,5кг) Корм для взрослых собак крупных пород с лососем и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MEDIUM  FISH (3кг) Корм для взрослых собак средних пород с рыбой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MEDIUM  LAMB/RICE  (3кг) Корм для взрослых собак средних пород с ягненком и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MEDIUM  LAMB/RICE (12,5кг) Корм для взрослых собак средних пород с ягненком и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MEDIUM  SALMON/RICE  (3кг) Корм для взрослых собак средних пород с лососем и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MEDIUM  SALMON/RICE (12,5кг) Корм для взрослых собак средних пород с лососем и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MEDIUM CHICKEN/TURKEY  (3кг) Корм для взрослых собак средних пород с курицей и индейкой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MEDIUM CHICKEN/TURKEY (20 кг) Корм для взрослых собак средних пород с курицей и индейкой </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MINI CHICKEN/TURKEY (2кг) Корм для взрослых собак мелких  пород с курицей и индейкой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MINI CHICKEN/TURKEY (8кг) Корм для взрослых собак мелких  пород с курицей и индейкой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MINI SALMON/RICE (2кг) Корм для взрослых собак мелких  пород с лососем и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MINI SALMON/RICE (8кг) Корм для взрослых собак мелких  пород с лососем и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Diet GASTRO INTESTINAL (1,5кг)  Диета для собак с чувствительным пищеварением</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Diet GASTRO INTESTINAL (10кг)  Диета для собак с чувствительным пищеварением</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Diet PUPPY JOINT (1,5кг)  Диета для щенков с заболеваниями суставов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Diet PUPPY JOINT (10 кг)  Диета для щенков с заболеваниями суставов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Diet SKIN CARE (1,5кг)  Диета для собак  с заболеваниями кожи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Diet SKIN CARE (10кг)  Диета для собак  с заболеваниями кожи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD GF Adult LAMB/TAPIOCA (12 кг) Беззерновой корм для собак всех пород с ягненком и тапиокой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD GF Adult SALMON/PEAS (1,5 кг) Беззерновой корм для собак всех пород с лососем и горохом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD GF Adult SALMON/PEAS (20 кг) Беззерновой корм для собак всех пород с лососем и горохом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD LG Adult MINI SALMON/RICE (1,5 кг) Низкозерновой корм для собак мелких пород с лососем и рисом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD LG Adult MINI SALMON/RICE (8 кг) Низкозерновой корм для собак мелких пород с лососем и рисом </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD LG PUPPY SALMON/RICE (1,5 кг) Низкозерновой корм для щенков всех пород с лососем и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD LG PUPPY SALMON/RICE (12 кг) Низкозерновой корм для щенков всех пород с лососем и рисом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Puppy MAXI Chicken /Turkey  (3кг) Корм для щенков крупных  пород   с курицей и индейкой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Puppy MAXI Chicken /Turkey (12,5кг) Корм для щенков крупных  пород  с курицей и индейкой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Puppy MINI /MEDIUM Chicken /Turkey  (3кг) Корм для щенков мелких и средних пород курица/инд.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Puppy MINI /MEDIUM Chicken /Turkey ( 20кг) Корм для щенков мелких и средних пород курица/инд.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult  ARINGA (1,5 кг) Корм для взрослых кошек на основе сельди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult  ARINGA (10 кг) Корм для взрослых кошек на основе сельди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult  STERILIZED ARINGA (1,5 кг) Корм для взрослых стерилизованных кошек на основе сельди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult  STERILIZED ARINGA (10 кг) Корм для взрослых стерилизованных кошек на основе сельди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult MANZO (10кг) Корм для взрослых кошек с говядиной </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult PESCE DI MARE (0.3 кг) Корм для взрослых кошек с морской рыбой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult POLLO (1.5 кг) Корм для взрослых кошек с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult POLLO (10кг) Корм для взрослых кошек с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult SALMONE (1.5 кг) Корм для взрослых кошек с лососем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult SALMONE (10 кг) Корм для взрослых кошек с лососем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult STERILIZED AZZURRO (0.3кг) Корм для взрослых стерилизованных кошек с голубой рыбой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult STERILIZED MANZO (10 кг) Корм для стерилизованных кошек с говядиной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult STERILIZED POLLO (0.3кг) Корм для взрослых стерилизованных кошек с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult STERILIZED POLLO (1,5 кг) Корм для взрослых стерилизованных кошек с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult STERILIZED POLLO (10 кг) Корм для взрослых стерилизованных кошек с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC Adult STERILIZED SALMONE (10 кг) Корм для стерилизованных кошек с лососем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC CAT KITTEN POLLO (1.5кг) Корм для котят с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRC CAT KITTEN POLLO (10кг) Корм для котят с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            пробник PRC CAMPIONE  CAT KITTEN (0.3кг) Корм для котят с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            пробник PRC CAMPIONE CAT Adult ARINGA (0.3кг) Корм для взрослых  кошек с сельдью</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            пробник PRC CAMPIONE CAT Adult MANZO (0.3кг) Корм для взрослых  кошек с говядиной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            пробник PRC CAMPIONE CAT Sterilizatto ARINGA (0.3кг) Корм для стерилизованных кошек с сельдью</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            пробник PRC CAMPIONE CAT STERILIZZATO POLLO (0.3 кг) Корм для стерилизованных кошек с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  ALL BREEDS BUFALO  (2кг) Корм для взрослых собак всех  пород с буйволом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  ALL BREEDS BUFALO (12кг) Корм для взрослых собак всех  пород с буйволом</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  ALL BREEDS CAVALLO  (2кг) Корм для взрослых собак всех  пород с кониной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  ALL BREEDS CAVALLO (12кг) Корм для взрослых собак всех  пород с кониной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  ALL BREEDS CERVO  (2кг) Корм для взрослых собак всех  пород с олениной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  ALL BREEDS CERVO (12кг) Корм для взрослых собак всех  пород с олениной</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  ALL BREEDS LIGHT  (2кг) Корм для взрослых собак всех  пород низкокалор.с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  ALL BREEDS LIGHT (12кг) Корм для взрослых собак всех  пород низкокалор.с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MAXI AGNELLO  (2кг) Корм для взрослых собак крупных пород с ягненком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MAXI AGNELLO (12кг) Корм для взрослых собак крупных пород с ягненком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MAXI MAIALE  (2кг) Корм для взрослых собак крупных пород со свининой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MAXI MAIALE (12кг) Корм для взрослых собак крупных пород со свининой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MAXI POLLO  (2кг) Корм для взрослых собак  крупных пород с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MAXI POLLO (12кг) Корм для взрослых собак  крупных пород с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MAXI SALMON  (2кг) Корм для взрослых собак крупных  пород с лососем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MAXI SALMON (12кг) Корм для взрослых собак крупных  пород с лососем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MEDIUM AGNELLO  (2кг) Корм для взрослых собак средних  пород с ягненком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MEDIUM AGNELLO (12кг) Корм для взрослых собак средних  пород с ягненком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MEDIUM MAIALE  (2кг) Корм для взрослых собак средних пород со свининой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MEDIUM MAIALE (12кг) Корм для взрослых собак средних пород со свининой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MEDIUM SALMON  (2кг) Корм для взрослых собак средних пород с лососем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MEDIUM SALMON (12кг) Корм для взрослых собак средних пород с лососем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MINI AGNELLO (2кг) Корм для взрослых собак мелких пород с ягненком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MINI AGNELLO (8кг) Корм для взрослых собак мелких пород с ягненком</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MINI MAIALE (2кг) Корм для взрослых собак мелких пород со свининой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Adult  MINI MAIALE (8кг) Корм для взрослых собак мелких пород со свининой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Puppy  MAXI POLLO  (2кг) Корм для щенков  крупных пород с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            PRD Puppy  MAXI POLLO (12кг) Корм для щенков  крупных пород с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            пробник PRD CAMPIONE Puppy MINI&amp;MEDIUM POLLO (0.3кг) Корм для щенков мелких и средн. пород с курицей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult All Breeds FOREST (1,5кг) Корм для взр. собак всех пород ягн./свин./буйвол/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult All Breeds FOREST (10кг) Корм для взр. собак всех пород ягн./свин./буйвол/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult All Breeds OCEAN (1,5кг) Корм для взр. собак всех пород лосось/сельдь/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult All Breeds OCEAN (10кг) Корм для взр. собак всех пород лосось/сельдь/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MINI  FOREST (1,5кг) Корм для взр. собак мелких пород ягн./свин./буйвол/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MINI  FOREST (10кг) Корм для взр. собак мелких пород ягн./свин./буйвол/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MINI  OCEAN (1,5кг) Корм для взр. собак мелких  пород лосось/сельдь/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD Adult MINI  OCEAN (10кг)  Корм для взр. собак мелких  пород лосось/сельдь/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD PUPPY  All Breeds FOREST (1,5кг) Корм для щенков всех  пород  ягн./свин./буйвол/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD PUPPY  All Breeds FOREST (10кг)  Корм для щенков всех  пород  ягн./свин./буйвол/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD PUPPY  All Breeds OCEAN (1,5кг) Корм для щенков всех  пород лосось/сельдь/бурый рис </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            HTD PUPPY  All Breeds OCEAN (10кг) Корм для щенков всех  пород лосось/сельдь/бурый рис </t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1079,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AH102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1157,8 +1193,8 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>129</v>
+      <c r="C2" t="s">
+        <v>135</v>
       </c>
       <c r="D2">
         <v>109.76</v>
@@ -1168,8 +1204,8 @@
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>130</v>
+      <c r="C3" t="s">
+        <v>136</v>
       </c>
       <c r="D3">
         <v>109.76</v>
@@ -1179,8 +1215,8 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>131</v>
+      <c r="C4" t="s">
+        <v>137</v>
       </c>
       <c r="D4">
         <v>131.78</v>
@@ -1190,8 +1226,8 @@
       <c r="A5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>132</v>
+      <c r="C5" t="s">
+        <v>138</v>
       </c>
       <c r="D5">
         <v>38.21</v>
@@ -1201,8 +1237,8 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
-        <v>133</v>
+      <c r="C6" t="s">
+        <v>139</v>
       </c>
       <c r="D6">
         <v>44.98</v>
@@ -1212,8 +1248,8 @@
       <c r="A7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
-        <v>134</v>
+      <c r="C7" t="s">
+        <v>140</v>
       </c>
       <c r="D7">
         <v>136.91</v>
@@ -1223,8 +1259,8 @@
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>135</v>
+      <c r="C8" t="s">
+        <v>141</v>
       </c>
       <c r="D8">
         <v>44.98</v>
@@ -1234,8 +1270,8 @@
       <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s">
-        <v>136</v>
+      <c r="C9" t="s">
+        <v>142</v>
       </c>
       <c r="D9">
         <v>136.91</v>
@@ -1245,8 +1281,8 @@
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>137</v>
+      <c r="C10" t="s">
+        <v>143</v>
       </c>
       <c r="D10">
         <v>38.2</v>
@@ -1256,8 +1292,8 @@
       <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" t="s">
-        <v>138</v>
+      <c r="C11" t="s">
+        <v>144</v>
       </c>
       <c r="D11">
         <v>175.63</v>
@@ -1267,8 +1303,8 @@
       <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
-        <v>139</v>
+      <c r="C12" t="s">
+        <v>145</v>
       </c>
       <c r="D12">
         <v>30.9</v>
@@ -1278,8 +1314,8 @@
       <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="B13" t="s">
-        <v>140</v>
+      <c r="C13" t="s">
+        <v>146</v>
       </c>
       <c r="D13">
         <v>101.09</v>
@@ -1289,8 +1325,8 @@
       <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B14" t="s">
-        <v>141</v>
+      <c r="C14" t="s">
+        <v>147</v>
       </c>
       <c r="D14">
         <v>32.3</v>
@@ -1300,8 +1336,8 @@
       <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
-        <v>142</v>
+      <c r="C15" t="s">
+        <v>148</v>
       </c>
       <c r="D15">
         <v>101.09</v>
@@ -1311,8 +1347,8 @@
       <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>143</v>
+      <c r="C16" t="s">
+        <v>149</v>
       </c>
       <c r="D16">
         <v>25.85</v>
@@ -1322,8 +1358,8 @@
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
-        <v>144</v>
+      <c r="C17" t="s">
+        <v>150</v>
       </c>
       <c r="D17">
         <v>115.57</v>
@@ -1333,8 +1369,8 @@
       <c r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
-        <v>145</v>
+      <c r="C18" t="s">
+        <v>151</v>
       </c>
       <c r="D18">
         <v>25.85</v>
@@ -1344,8 +1380,8 @@
       <c r="A19" t="s">
         <v>51</v>
       </c>
-      <c r="B19" t="s">
-        <v>146</v>
+      <c r="C19" t="s">
+        <v>152</v>
       </c>
       <c r="D19">
         <v>115.57</v>
@@ -1355,8 +1391,8 @@
       <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
-        <v>147</v>
+      <c r="C20" t="s">
+        <v>153</v>
       </c>
       <c r="D20">
         <v>25.85</v>
@@ -1366,8 +1402,8 @@
       <c r="A21" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s">
-        <v>148</v>
+      <c r="C21" t="s">
+        <v>154</v>
       </c>
       <c r="D21">
         <v>115.57</v>
@@ -1377,8 +1413,8 @@
       <c r="A22" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
-        <v>149</v>
+      <c r="C22" t="s">
+        <v>155</v>
       </c>
       <c r="D22">
         <v>145.5</v>
@@ -1388,8 +1424,8 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s">
-        <v>150</v>
+      <c r="C23" t="s">
+        <v>156</v>
       </c>
       <c r="D23">
         <v>26.12</v>
@@ -1399,8 +1435,8 @@
       <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
-        <v>151</v>
+      <c r="C24" t="s">
+        <v>157</v>
       </c>
       <c r="D24">
         <v>224.71</v>
@@ -1410,8 +1446,8 @@
       <c r="A25" t="s">
         <v>57</v>
       </c>
-      <c r="B25" t="s">
-        <v>152</v>
+      <c r="C25" t="s">
+        <v>158</v>
       </c>
       <c r="D25">
         <v>26.12</v>
@@ -1421,8 +1457,8 @@
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
-        <v>153</v>
+      <c r="C26" t="s">
+        <v>159</v>
       </c>
       <c r="D26">
         <v>106.06</v>
@@ -1432,8 +1468,8 @@
       <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
-        <v>154</v>
+      <c r="C27" t="s">
+        <v>160</v>
       </c>
       <c r="D27">
         <v>26.12</v>
@@ -1443,8 +1479,8 @@
       <c r="A28" t="s">
         <v>60</v>
       </c>
-      <c r="B28" t="s">
-        <v>155</v>
+      <c r="C28" t="s">
+        <v>161</v>
       </c>
       <c r="D28">
         <v>145.5</v>
@@ -1454,8 +1490,8 @@
       <c r="A29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" t="s">
-        <v>156</v>
+      <c r="C29" t="s">
+        <v>162</v>
       </c>
       <c r="D29">
         <v>44.71</v>
@@ -1465,8 +1501,8 @@
       <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
-        <v>157</v>
+      <c r="C30" t="s">
+        <v>163</v>
       </c>
       <c r="D30">
         <v>131.78</v>
@@ -1476,8 +1512,8 @@
       <c r="A31" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
-        <v>158</v>
+      <c r="C31" t="s">
+        <v>164</v>
       </c>
       <c r="D31">
         <v>44.71</v>
@@ -1487,8 +1523,8 @@
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
-        <v>159</v>
+      <c r="C32" t="s">
+        <v>165</v>
       </c>
       <c r="D32">
         <v>210.85</v>
@@ -1498,8 +1534,8 @@
       <c r="A33" t="s">
         <v>65</v>
       </c>
-      <c r="B33" t="s">
-        <v>160</v>
+      <c r="C33" t="s">
+        <v>166</v>
       </c>
       <c r="D33">
         <v>25.13</v>
@@ -1509,8 +1545,8 @@
       <c r="A34" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
-        <v>161</v>
+      <c r="C34" t="s">
+        <v>167</v>
       </c>
       <c r="D34">
         <v>118.97</v>
@@ -1520,8 +1556,8 @@
       <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
-        <v>162</v>
+      <c r="C35" t="s">
+        <v>168</v>
       </c>
       <c r="D35">
         <v>25.13</v>
@@ -1531,8 +1567,8 @@
       <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
-        <v>163</v>
+      <c r="C36" t="s">
+        <v>169</v>
       </c>
       <c r="D36">
         <v>118.97</v>
@@ -1542,8 +1578,8 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
-        <v>164</v>
+      <c r="C37" t="s">
+        <v>170</v>
       </c>
       <c r="D37">
         <v>119.12</v>
@@ -1553,8 +1589,8 @@
       <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="s">
-        <v>165</v>
+      <c r="C38" t="s">
+        <v>171</v>
       </c>
       <c r="D38">
         <v>6.8</v>
@@ -1564,8 +1600,8 @@
       <c r="A39" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s">
-        <v>166</v>
+      <c r="C39" t="s">
+        <v>172</v>
       </c>
       <c r="D39">
         <v>28.99</v>
@@ -1575,8 +1611,8 @@
       <c r="A40" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
-        <v>167</v>
+      <c r="C40" t="s">
+        <v>173</v>
       </c>
       <c r="D40">
         <v>118.97</v>
@@ -1586,8 +1622,8 @@
       <c r="A41" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s">
-        <v>168</v>
+      <c r="C41" t="s">
+        <v>174</v>
       </c>
       <c r="D41">
         <v>28.99</v>
@@ -1597,8 +1633,8 @@
       <c r="A42" t="s">
         <v>74</v>
       </c>
-      <c r="B42" t="s">
-        <v>169</v>
+      <c r="C42" t="s">
+        <v>175</v>
       </c>
       <c r="D42">
         <v>119.12</v>
@@ -1608,8 +1644,8 @@
       <c r="A43" t="s">
         <v>75</v>
       </c>
-      <c r="B43" t="s">
-        <v>170</v>
+      <c r="C43" t="s">
+        <v>176</v>
       </c>
       <c r="D43">
         <v>6.8</v>
@@ -1619,8 +1655,8 @@
       <c r="A44" t="s">
         <v>76</v>
       </c>
-      <c r="B44" t="s">
-        <v>171</v>
+      <c r="C44" t="s">
+        <v>177</v>
       </c>
       <c r="D44">
         <v>118.97</v>
@@ -1630,8 +1666,8 @@
       <c r="A45" t="s">
         <v>77</v>
       </c>
-      <c r="B45" t="s">
-        <v>172</v>
+      <c r="C45" t="s">
+        <v>178</v>
       </c>
       <c r="D45">
         <v>6.8</v>
@@ -1641,8 +1677,8 @@
       <c r="A46" t="s">
         <v>78</v>
       </c>
-      <c r="B46" t="s">
-        <v>173</v>
+      <c r="C46" t="s">
+        <v>179</v>
       </c>
       <c r="D46">
         <v>25.13</v>
@@ -1652,8 +1688,8 @@
       <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" t="s">
-        <v>174</v>
+      <c r="C47" t="s">
+        <v>180</v>
       </c>
       <c r="D47">
         <v>118.97</v>
@@ -1663,8 +1699,8 @@
       <c r="A48" t="s">
         <v>80</v>
       </c>
-      <c r="B48" t="s">
-        <v>175</v>
+      <c r="C48" t="s">
+        <v>181</v>
       </c>
       <c r="D48">
         <v>119.12</v>
@@ -1674,8 +1710,8 @@
       <c r="A49" t="s">
         <v>81</v>
       </c>
-      <c r="B49" t="s">
-        <v>176</v>
+      <c r="C49" t="s">
+        <v>182</v>
       </c>
       <c r="D49">
         <v>29.52</v>
@@ -1685,8 +1721,8 @@
       <c r="A50" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="s">
-        <v>177</v>
+      <c r="C50" t="s">
+        <v>183</v>
       </c>
       <c r="D50">
         <v>121.36</v>
@@ -1696,8 +1732,8 @@
       <c r="A51" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="s">
-        <v>178</v>
+      <c r="C51" t="s">
+        <v>184</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -1707,8 +1743,8 @@
       <c r="A52" t="s">
         <v>84</v>
       </c>
-      <c r="B52" t="s">
-        <v>179</v>
+      <c r="C52" t="s">
+        <v>185</v>
       </c>
       <c r="D52">
         <v>6</v>
@@ -1718,8 +1754,8 @@
       <c r="A53" t="s">
         <v>85</v>
       </c>
-      <c r="B53" t="s">
-        <v>180</v>
+      <c r="C53" t="s">
+        <v>186</v>
       </c>
       <c r="D53">
         <v>6</v>
@@ -1729,8 +1765,8 @@
       <c r="A54" t="s">
         <v>86</v>
       </c>
-      <c r="B54" t="s">
-        <v>181</v>
+      <c r="C54" t="s">
+        <v>187</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -1740,8 +1776,8 @@
       <c r="A55" t="s">
         <v>87</v>
       </c>
-      <c r="B55" t="s">
-        <v>182</v>
+      <c r="C55" t="s">
+        <v>188</v>
       </c>
       <c r="D55">
         <v>6</v>
@@ -1751,8 +1787,8 @@
       <c r="A56" t="s">
         <v>88</v>
       </c>
-      <c r="B56" t="s">
-        <v>183</v>
+      <c r="C56" t="s">
+        <v>189</v>
       </c>
       <c r="D56">
         <v>26.22</v>
@@ -1762,8 +1798,8 @@
       <c r="A57" t="s">
         <v>89</v>
       </c>
-      <c r="B57" t="s">
-        <v>184</v>
+      <c r="C57" t="s">
+        <v>190</v>
       </c>
       <c r="D57">
         <v>117.96</v>
@@ -1773,8 +1809,8 @@
       <c r="A58" t="s">
         <v>90</v>
       </c>
-      <c r="B58" t="s">
-        <v>185</v>
+      <c r="C58" t="s">
+        <v>191</v>
       </c>
       <c r="D58">
         <v>25.02</v>
@@ -1784,8 +1820,8 @@
       <c r="A59" t="s">
         <v>91</v>
       </c>
-      <c r="B59" t="s">
-        <v>186</v>
+      <c r="C59" t="s">
+        <v>192</v>
       </c>
       <c r="D59">
         <v>112.97</v>
@@ -1795,8 +1831,8 @@
       <c r="A60" t="s">
         <v>92</v>
       </c>
-      <c r="B60" t="s">
-        <v>187</v>
+      <c r="C60" t="s">
+        <v>193</v>
       </c>
       <c r="D60">
         <v>26.22</v>
@@ -1806,8 +1842,8 @@
       <c r="A61" t="s">
         <v>93</v>
       </c>
-      <c r="B61" t="s">
-        <v>188</v>
+      <c r="C61" t="s">
+        <v>194</v>
       </c>
       <c r="D61">
         <v>117.96</v>
@@ -1817,8 +1853,8 @@
       <c r="A62" t="s">
         <v>94</v>
       </c>
-      <c r="B62" t="s">
-        <v>189</v>
+      <c r="C62" t="s">
+        <v>195</v>
       </c>
       <c r="D62">
         <v>19.84</v>
@@ -1828,8 +1864,8 @@
       <c r="A63" t="s">
         <v>95</v>
       </c>
-      <c r="B63" t="s">
-        <v>190</v>
+      <c r="C63" t="s">
+        <v>196</v>
       </c>
       <c r="D63">
         <v>97.2</v>
@@ -1839,8 +1875,8 @@
       <c r="A64" t="s">
         <v>96</v>
       </c>
-      <c r="B64" t="s">
-        <v>191</v>
+      <c r="C64" t="s">
+        <v>197</v>
       </c>
       <c r="D64">
         <v>25.02</v>
@@ -1850,8 +1886,8 @@
       <c r="A65" t="s">
         <v>97</v>
       </c>
-      <c r="B65" t="s">
-        <v>192</v>
+      <c r="C65" t="s">
+        <v>198</v>
       </c>
       <c r="D65">
         <v>112.97</v>
@@ -1861,8 +1897,8 @@
       <c r="A66" t="s">
         <v>98</v>
       </c>
-      <c r="B66" t="s">
-        <v>193</v>
+      <c r="C66" t="s">
+        <v>199</v>
       </c>
       <c r="D66">
         <v>25.02</v>
@@ -1872,8 +1908,8 @@
       <c r="A67" t="s">
         <v>99</v>
       </c>
-      <c r="B67" t="s">
-        <v>194</v>
+      <c r="C67" t="s">
+        <v>200</v>
       </c>
       <c r="D67">
         <v>112.97</v>
@@ -1883,8 +1919,8 @@
       <c r="A68" t="s">
         <v>100</v>
       </c>
-      <c r="B68" t="s">
-        <v>195</v>
+      <c r="C68" t="s">
+        <v>201</v>
       </c>
       <c r="D68">
         <v>23.24</v>
@@ -1894,8 +1930,8 @@
       <c r="A69" t="s">
         <v>101</v>
       </c>
-      <c r="B69" t="s">
-        <v>196</v>
+      <c r="C69" t="s">
+        <v>202</v>
       </c>
       <c r="D69">
         <v>106.99</v>
@@ -1905,8 +1941,8 @@
       <c r="A70" t="s">
         <v>102</v>
       </c>
-      <c r="B70" t="s">
-        <v>197</v>
+      <c r="C70" t="s">
+        <v>203</v>
       </c>
       <c r="D70">
         <v>25.02</v>
@@ -1916,8 +1952,8 @@
       <c r="A71" t="s">
         <v>103</v>
       </c>
-      <c r="B71" t="s">
-        <v>198</v>
+      <c r="C71" t="s">
+        <v>204</v>
       </c>
       <c r="D71">
         <v>112.97</v>
@@ -1927,8 +1963,8 @@
       <c r="A72" t="s">
         <v>104</v>
       </c>
-      <c r="B72" t="s">
-        <v>199</v>
+      <c r="C72" t="s">
+        <v>205</v>
       </c>
       <c r="D72">
         <v>25.02</v>
@@ -1938,8 +1974,8 @@
       <c r="A73" t="s">
         <v>105</v>
       </c>
-      <c r="B73" t="s">
-        <v>200</v>
+      <c r="C73" t="s">
+        <v>206</v>
       </c>
       <c r="D73">
         <v>112.97</v>
@@ -1949,8 +1985,8 @@
       <c r="A74" t="s">
         <v>106</v>
       </c>
-      <c r="B74" t="s">
-        <v>201</v>
+      <c r="C74" t="s">
+        <v>207</v>
       </c>
       <c r="D74">
         <v>25.02</v>
@@ -1960,8 +1996,8 @@
       <c r="A75" t="s">
         <v>107</v>
       </c>
-      <c r="B75" t="s">
-        <v>202</v>
+      <c r="C75" t="s">
+        <v>208</v>
       </c>
       <c r="D75">
         <v>112.97</v>
@@ -1971,8 +2007,8 @@
       <c r="A76" t="s">
         <v>108</v>
       </c>
-      <c r="B76" t="s">
-        <v>203</v>
+      <c r="C76" t="s">
+        <v>209</v>
       </c>
       <c r="D76">
         <v>25.02</v>
@@ -1982,8 +2018,8 @@
       <c r="A77" t="s">
         <v>109</v>
       </c>
-      <c r="B77" t="s">
-        <v>204</v>
+      <c r="C77" t="s">
+        <v>210</v>
       </c>
       <c r="D77">
         <v>112.97</v>
@@ -1993,8 +2029,8 @@
       <c r="A78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>205</v>
+      <c r="C78" t="s">
+        <v>211</v>
       </c>
       <c r="D78">
         <v>22.28</v>
@@ -2004,19 +2040,19 @@
       <c r="A79" t="s">
         <v>111</v>
       </c>
-      <c r="B79" t="s">
-        <v>206</v>
+      <c r="C79" t="s">
+        <v>212</v>
       </c>
       <c r="D79">
-        <v>76.08</v>
+        <v>98.66</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>112</v>
       </c>
-      <c r="B80" t="s">
-        <v>207</v>
+      <c r="C80" t="s">
+        <v>213</v>
       </c>
       <c r="D80">
         <v>22.28</v>
@@ -2026,8 +2062,8 @@
       <c r="A81" t="s">
         <v>113</v>
       </c>
-      <c r="B81" t="s">
-        <v>208</v>
+      <c r="C81" t="s">
+        <v>214</v>
       </c>
       <c r="D81">
         <v>76.08</v>
@@ -2037,8 +2073,8 @@
       <c r="A82" t="s">
         <v>114</v>
       </c>
-      <c r="B82" t="s">
-        <v>209</v>
+      <c r="C82" t="s">
+        <v>215</v>
       </c>
       <c r="D82">
         <v>26.22</v>
@@ -2048,8 +2084,8 @@
       <c r="A83" t="s">
         <v>115</v>
       </c>
-      <c r="B83" t="s">
-        <v>210</v>
+      <c r="C83" t="s">
+        <v>216</v>
       </c>
       <c r="D83">
         <v>117.96</v>
@@ -2059,8 +2095,8 @@
       <c r="A84" t="s">
         <v>116</v>
       </c>
-      <c r="B84" t="s">
-        <v>211</v>
+      <c r="C84" t="s">
+        <v>217</v>
       </c>
       <c r="D84">
         <v>6</v>
@@ -2070,118 +2106,118 @@
       <c r="A85" t="s">
         <v>117</v>
       </c>
-      <c r="B85" t="s">
-        <v>212</v>
+      <c r="C85" t="s">
+        <v>218</v>
       </c>
       <c r="D85">
-        <v>15.24</v>
+        <v>148.81</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>118</v>
       </c>
-      <c r="B86" t="s">
-        <v>213</v>
+      <c r="C86" t="s">
+        <v>219</v>
       </c>
       <c r="D86">
-        <v>113.27</v>
+        <v>162.44</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>119</v>
       </c>
-      <c r="B87" t="s">
-        <v>214</v>
+      <c r="C87" t="s">
+        <v>220</v>
       </c>
       <c r="D87">
-        <v>15.24</v>
+        <v>182.88</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>120</v>
       </c>
-      <c r="B88" t="s">
-        <v>215</v>
+      <c r="C88" t="s">
+        <v>221</v>
       </c>
       <c r="D88">
-        <v>113.27</v>
+        <v>175.03</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>121</v>
       </c>
-      <c r="B89" t="s">
-        <v>216</v>
+      <c r="C89" t="s">
+        <v>222</v>
       </c>
       <c r="D89">
-        <v>19.37</v>
+        <v>182.88</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>122</v>
       </c>
-      <c r="B90" t="s">
-        <v>217</v>
+      <c r="C90" t="s">
+        <v>223</v>
       </c>
       <c r="D90">
-        <v>119.24</v>
+        <v>192.17</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>123</v>
       </c>
-      <c r="B91" t="s">
-        <v>218</v>
+      <c r="C91" t="s">
+        <v>224</v>
       </c>
       <c r="D91">
-        <v>19.37</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>124</v>
       </c>
-      <c r="B92" t="s">
-        <v>219</v>
+      <c r="C92" t="s">
+        <v>225</v>
       </c>
       <c r="D92">
-        <v>119.24</v>
+        <v>113.27</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>125</v>
       </c>
-      <c r="B93" t="s">
-        <v>220</v>
+      <c r="C93" t="s">
+        <v>226</v>
       </c>
       <c r="D93">
-        <v>19.37</v>
+        <v>15.24</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>126</v>
       </c>
-      <c r="B94" t="s">
-        <v>221</v>
+      <c r="C94" t="s">
+        <v>227</v>
       </c>
       <c r="D94">
-        <v>119.24</v>
+        <v>113.27</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>127</v>
       </c>
-      <c r="B95" t="s">
-        <v>222</v>
+      <c r="C95" t="s">
+        <v>228</v>
       </c>
       <c r="D95">
         <v>19.37</v>
@@ -2191,10 +2227,76 @@
       <c r="A96" t="s">
         <v>128</v>
       </c>
-      <c r="B96" t="s">
-        <v>223</v>
+      <c r="C96" t="s">
+        <v>229</v>
       </c>
       <c r="D96">
+        <v>119.24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>129</v>
+      </c>
+      <c r="C97" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98">
+        <v>119.24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>132</v>
+      </c>
+      <c r="C100" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100">
+        <v>119.24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101">
+        <v>19.37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102">
         <v>119.24</v>
       </c>
     </row>
